--- a/data/georgia_census/shida-qartli/xashuri/age_dependency.xlsx
+++ b/data/georgia_census/shida-qartli/xashuri/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E759C385-F03D-4234-A260-3145F0D07E14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9301214F-04CF-4BBC-9CF4-9322454DAEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71689865-DB80-4E8B-8C0B-5E0E6ADC0697}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A156E7-B130-4322-B76B-443126FC4A91}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABC3E4BA-9EE9-4FFE-BDC8-568771F775C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828BE450-66C9-45B0-9AAA-43599AE7CD4A}"/>
 </file>